--- a/src/files/student_input_list.xlsx
+++ b/src/files/student_input_list.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java Programming\TestProject\src\admitCards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java Programming\TestProject\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="student" sheetId="1" r:id="rId1"/>
+    <sheet name="class_ten" sheetId="1" r:id="rId1"/>
+    <sheet name="class_eight" sheetId="2" r:id="rId2"/>
+    <sheet name="class_five" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -105,6 +107,24 @@
   </si>
   <si>
     <t>Akhi Akter</t>
+  </si>
+  <si>
+    <t>Sadia Zaman</t>
+  </si>
+  <si>
+    <t>Ananya Akhter</t>
+  </si>
+  <si>
+    <t>Bamundi School &amp; College</t>
+  </si>
+  <si>
+    <t>Kamrul Hasan</t>
+  </si>
+  <si>
+    <t>Kibria Zaman</t>
+  </si>
+  <si>
+    <t>Sabuz Sathi</t>
   </si>
 </sst>
 </file>
@@ -431,9 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -493,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -526,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -603,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -636,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -647,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -681,10 +703,689 @@
       </c>
       <c r="C22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>